--- a/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA2CCF-B28D-FA45-8707-A8B1DE4B514C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B2DA0D-1B2D-E748-8F24-01ADEC536622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="520" windowWidth="36100" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="500" windowWidth="36100" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
   <si>
     <t>RefID</t>
   </si>
@@ -85,62 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">I couldn't locate a specific publication associated with the GenBank submissions JN650518 and JN650517 by authors Bjornson-Hooper Z., Gire S., Honko A., Sabeti P., and Hensley L. from 2011. It's possible that the sequences were submitted as part of a larger study or project without a corresponding standalone publication. For more detailed information, you might consider contacting the authors directly or consulting the United States Army Medical Research Institute for Infectious Diseases, where the research was conducted. </t>
-  </si>
-  <si>
-    <t>Clegg C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Clegg C.S., Special Pathogens Reference Unit, Health Protection Agency CEPR, Porton Down, Salisbury, SP4 0JG, UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>AJ969409, AJ969408, AJ969407, AJ969406, AJ969405, AJ969404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was unable to locate a specific publication associated with the GenBank submissions AJ969404–AJ969409 by Clegg C.S. from 2005. The GenBank records list "Direct Submission" as the title, indicating that the sequences were submitted directly to the database without an accompanying publication. It's possible that these sequences were part of ongoing research or surveillance efforts and were not linked to a formal publication. </t>
-  </si>
-  <si>
-    <t>Djavani M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pathology, University of Wisconsin, 1300 University Ave., SMI, Rm.#512, Madison, WI 53706, USA</t>
-  </si>
-  <si>
-    <t>NC_004297, U73035, U73034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank submissions with accession numbers NC_004297, U73035, and U73034 are associated with the following publication:
-**Title:** Completion of the Lassa fever virus sequence and identification of a RING finger open reading frame at the L RNA 5' End.
-**Authors:** Djavani M, Lukashevich IS, Sanchez A, Nichol ST, Salvato MS.
-**Journal:** Virology.
-**Year:** 1997.
-**PMID:** 9281522.
-**DOI:** 10.1006/viro.1997.8722.
-This study completes the sequencing of the Lassa fever virus and identifies a RING finger open reading frame at the 5' end of the L RNA segment. </t>
-  </si>
-  <si>
-    <t>Fichet-calvet E., Stephan O., Thomas S., Lamine K., Beate B., N'faly M., Stephan G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virology, Bernhard-Nocht Institute of Tropical Medicine, Bernhard-Nocht Strasse 74, Hamburg 20359, Germany</t>
-  </si>
-  <si>
-    <t>KP339133, KP339132, KP339131, KP339130, KP339129, KP339128, KP339127, KP339126, KP339125, KP339124, KP339123, KP339122, KP339121, KP339120, KP339119, KP339118, KP339117, KP339116, KP339115, KP339114, KP339113, KP339112, KP339111, KP339110, KP339109, KP339108, KP339107, KP339106, KP339105, KP339104, KP339103, KP339102, KP339101, KP339100, KP339099, KP339098, KP339097, KP339096, KP339095, KP339094, KP339093, KP339092, KP339091, KP339090, KP339089, KP339088, KP339087, KP339086, KP339085, KP339084, KP339083, KP339082, KP339081, KP339080, KP339079, KP339078, KP339077, KP339076, KP339075, KP339074, KP339073, KP339072, KP339071, KP339070, KP339069, KP339068, KP339067, KP339066, KP339065, KP339064, KP339063, KP339062, KP339061, KP339060, KP339059, KP339058, KP339057, KP339056, KP339055, KP339054, KP339053, KP339052, KP339051, KP339050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank submissions with accession numbers KP339050 to KP339133 are associated with the study titled "Spatial and temporal evolution of Lassa virus in the natural host population in Upper Guinea," authored by Elisabeth Fichet-Calvet et al., and published in *Scientific Reports* in 2016. ([nature.com](https://www.nature.com/articles/srep21977?utm_source=openai))
-The study is accessible at https://www.nature.com/articles/srep21977. </t>
-  </si>
-  <si>
-    <t>Geisbert J., Cross R., Safronetz D., Fischer R., Munster V., Feldmann H., Geisbert T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microbiology and Immunology, University of Texas Medical Branch, 301 University Parkway, Galveston, TX 77555, USA</t>
-  </si>
-  <si>
-    <t>MW004547, MW004546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was unable to locate a specific publication associated with the GenBank submissions MW004547 and MW004546 by authors Geisbert J., Cross R., Safronetz D., Fischer R., Munster V., Feldmann H., and Geisbert T. from 2020. It's possible that the data has not been linked to a published study or that the publication is not readily accessible through standard databases. </t>
   </si>
   <si>
     <t>Hain T.</t>
@@ -195,24 +139,6 @@
   </si>
   <si>
     <t>NCBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Center for Biotechnology Information, NIH, Bethesda, MD 20894, USA</t>
-  </si>
-  <si>
-    <t>NC_004296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank accession number NC_004296 corresponds to the complete sequence of the Lassa virus S segment, submitted directly to the National Center for Biotechnology Information (NCBI) in 2002. This submission is labeled as "Direct Submission" by NCBI and does not appear to be associated with a specific published study. Therefore, there is no corresponding publication to reference for this GenBank entry. </t>
-  </si>
-  <si>
-    <t>NC_004297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank accession number NC_004297 corresponds to the complete sequence of the L segment of the Lassa virus genome. This sequence was submitted directly to the National Center for Biotechnology Information (NCBI) in 2007, as indicated by the title "Direct Submission" and authorship attributed to NCBI. Such direct submissions often serve as references for genomic data without being linked to a specific publication.
-However, the sequence data for Lassa virus, including the L segment, have been utilized in various studies. One notable publication is "Completion of the Lassa fever virus sequence and identification of a RING finger open reading frame at the L RNA 5' End" by Djavani et al., published in Virology in 1997. This study provides comprehensive information on the Lassa virus genome and is accessible via PubMed with PMID: 9281522. ([kegg.jp](https://www.kegg.jp/entry/T40010?utm_source=openai))
-Additionally, the L segment sequence has been referenced in other research, such as the study titled "Molecular characterization of a reassortant virus derived from Lassa and Mopeia viruses," published in 2006. This research is available on PubMed with PMID: 17143722. ([pubmed.ncbi.nlm.nih.gov](https://pubmed.ncbi.nlm.nih.gov/17143722/?utm_source=openai))
-Therefore, while the direct submission itself may not be associated with a specific publication, the sequence data have been instrumental in multiple studies concerning the Lassa virus. </t>
   </si>
   <si>
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
@@ -441,24 +367,6 @@
   </si>
   <si>
     <t xml:space="preserve">The study titled "Biochemical characterization of the Lassa virus L protein" by Günther S. and Rosenthal M., published in 2019, can be accessed at https://pmc.ncbi.nlm.nih.gov/articles/PMC6527160/. </t>
-  </si>
-  <si>
-    <t>A reverse genetics system for lassa virus</t>
-  </si>
-  <si>
-    <t>Becker-ziaja B., Golnitz U., Gunther S., Hass M., Muller S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virology, Bernhard-Nocht-Institut, Bernhard-Nocht-Strasse 74, Hamburg D-20359, Germany, Unpublished</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>AF246121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The study titled "Replicon System for Lassa Virus" by Meike Hass, Uta Gölnitz, Stefanie Müller, Beate Becker-Ziaja, and Stephan Günther was published in the Journal of Virology in 2004. The PubMed ID (PMID) for this publication is 15564487. ([europepmc.org](https://europepmc.org/abstract/MED/15564487?utm_source=openai)) </t>
   </si>
   <si>
     <t>Arenaviruses in southern african rodents</t>
@@ -883,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -892,9 +800,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1201,20 +1106,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="43.5" customWidth="1"/>
-    <col min="8" max="8" width="80.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="80.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,16 +1139,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1263,11 +1168,11 @@
         <v>10</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1287,13 +1192,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1305,19 +1210,24 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="2">
+        <v>27660771</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1329,133 +1239,127 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2">
-        <v>9281522</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2">
-        <v>26911443</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>2020</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>30</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="272" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>2016</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2">
-        <v>27660771</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>38</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>20</v>
-      </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -1463,966 +1367,790 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E10">
-        <v>2004</v>
+      <c r="E10" t="s">
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2">
+        <v>26276630</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2">
+        <v>19317988</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2">
+        <v>31002054</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2">
+        <v>39551823</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2">
+        <v>36968239</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="I10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25811712</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2">
+        <v>32977629</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="2">
+        <v>31554720</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30718881</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="2">
+        <v>31365854</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="2">
+        <v>38088796</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>2024</v>
+      </c>
+      <c r="F35" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>2002</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="304" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="G35" s="3"/>
+      <c r="H35" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>2007</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13">
-        <v>2020</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14">
-        <v>2016</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15">
-        <v>2016</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2">
-        <v>26276630</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="2">
-        <v>19317988</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="2">
-        <v>31002054</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="2">
-        <v>39551823</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="192" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="2">
+        <v>30332564</v>
+      </c>
+      <c r="H37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>109</v>
       </c>
-      <c r="F22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="380" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="2">
-        <v>36968239</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="2">
-        <v>25811712</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
         <v>147</v>
       </c>
-      <c r="F29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="2">
-        <v>32977629</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="2">
-        <v>31554720</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="208" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="2">
-        <v>30718881</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F38" t="s">
         <v>172</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" t="s">
         <v>173</v>
       </c>
-      <c r="E33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>91</v>
-      </c>
-      <c r="B35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="2">
-        <v>31365854</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>102</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="I38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="335" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" t="s">
-        <v>214</v>
-      </c>
-      <c r="G40" s="2">
-        <v>38088796</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>105</v>
-      </c>
-      <c r="B41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" t="s">
-        <v>219</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>2024</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="395" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>108</v>
-      </c>
-      <c r="B44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="2">
-        <v>30332564</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>109</v>
-      </c>
-      <c r="B45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" t="s">
-        <v>199</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I45" t="s">
-        <v>227</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I38" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I38">
+      <sortCondition ref="A1:A38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3093,7 +2821,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>

--- a/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B2DA0D-1B2D-E748-8F24-01ADEC536622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED518E-0D7C-2B4E-862C-AC92448A8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="500" windowWidth="36100" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="1560" windowWidth="20100" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>Whole genome-sequencing from clinical and field samples uncovers ancient origins and intra-host evolution of lassa virus</t>
   </si>
   <si>
-    <t>Andersen K., Birren B., Ehiane P., England E., Folarin O., Garry R., Gire S., Gnirke A., Goba A., Happi C., Hensley L., Levin J., Matranga C., Momoh M., Moses L., Odia I., Sabeti P., Sealfon R., Shapiro B., Stremlau M., Winnicki S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Broad Institute, 75 Ames St, Cambridge, MA 02142, USA, Unpublished</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>A case of imported lassa fever from mali</t>
   </si>
   <si>
-    <t>Anaraki S., Atkin S., Brown D., Gopal R., Gothard P., Hand J., Morgan D., Walsh A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virus Reference Department, HPA Centre for Infections, 61 Colindale Avenue, Colindale, London NW9 5HT, United Kingdom, Euro Surveill. (2009) In press</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>Differential pathogenesis in closely related 2018 nigerian outbreak clade iii lassa virus isolates</t>
   </si>
   <si>
-    <t>Ahmad A., Akinpelu A., Albietz A., Audet J., Griffin B., Grolla A., Ihekweazu C., Kobasa D., Leung A., Mba N., Musa A., Qiu X., Safronetz D., Soule G., Sroga P., Stein D., Tierney K., Warner B.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Special Pathogens, Public Health Agency of Canada, 1015 Arlington street, Winnipeg, Manitoba R3E 3R2, Canada, Unpublished</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>A lassa virus live attenuated vaccine candidate that is safe and efficacious in guinea pigs</t>
   </si>
   <si>
-    <t>Carey B., Carlos de la torre J., Cubitt B., Geiger J., Hirsch S., Kuhn J., Martinez-sobrido L., Mehta M., Ye C., Yu S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IRF, NIH/NIAID, 8200 Research Plaza, Frederick, MD 21702, USA, Unpublished</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>Geographical dependence of genetic variability among lassa virus isolates</t>
   </si>
   <si>
-    <t>Burton J., Clegg C., Lloyd G., Silman N., Tolley H.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Clegg C.S., Special Pathogens Programme, Centre for Applied Microbiology and Research, Porton Down, Salisbury, SP4 0JG, UNITED KINGDOM, Unpublished</t>
   </si>
   <si>
@@ -297,9 +282,6 @@
     <t>Zoonotic surveillance of lassa fever virus in nigeria</t>
   </si>
   <si>
-    <t>Eromon P., Happi A., Happi C., Ogunsanya O., Oguzie J., Olumade T., Oluniyi P.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biological Sciences, Redeemer's University, Akoda, Ede, Osun 234001, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -313,9 +295,6 @@
   </si>
   <si>
     <t>Lassa virus from cote d'ivoire: insights into the cryptic circulation of lasv in west africa</t>
-  </si>
-  <si>
-    <t>Calvignac-spencer S., Du plessis L., Escalera-zamudio M., Kouadio L., Leendertz F., Matranga C., Pybus O., Theze J.</t>
   </si>
   <si>
     <t xml:space="preserve"> Zoology, The University of Oxford, S Parks Rd, Oxford, Oxfordshire OX1 3SY, United Kingdom, Unpublished</t>
@@ -333,9 +312,6 @@
   </si>
   <si>
     <t>Ecological investigations of the genomic diversity of lassa virus in sierra leone</t>
-  </si>
-  <si>
-    <t>Bangura J., Bird B., Davison A., Ghersi B., Nichols J., Vucak M.</t>
   </si>
   <si>
     <t xml:space="preserve"> Centre for Virus Research, University of Glasgow, 464 Bearsden Rd, Bearsden, Glasgow, GLC G61 1QH, United Kingdom, Unpublished</t>
@@ -372,9 +348,6 @@
     <t>Arenaviruses in southern african rodents</t>
   </si>
   <si>
-    <t>Burt F., Grobbelaar A., Jardine J., Swanepoel R.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Centre for Zoonotic and Emerging Diseases (Special Viral Pathogens Laboratory), NICD, 1 Modderfontein Road, Johannesburg, Gauteng 2131, South Africa, Unpublished</t>
   </si>
   <si>
@@ -390,9 +363,6 @@
     <t>Lassa virus in host rodent mastomys natalensis within urban area n'zerekore, guinea</t>
   </si>
   <si>
-    <t>Bayandin R., Boiro M., Boumbaly S., Gladysheva A., Karan L., Korneev M., Kourouma K., Makenov M., Sako S., Shipovalov A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Molecular diagnostic and Epidemiology, Central Research Institute of Epidemiology, Novogireevskaya Str, 3A, Moscow 111123, Russia, Unpublished</t>
   </si>
   <si>
@@ -405,9 +375,6 @@
     <t>Sequence variability and geographic distribution of lassa virus in sierra leone</t>
   </si>
   <si>
-    <t>Leski T., Lin B., Moses L., Park M., Stockelman M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Center for Bio/Molecular Science and Engineering, Naval Research Laboratory, 4555 Overlook Ave, Washington, DC 20375, USA, Unpublished</t>
   </si>
   <si>
@@ -420,9 +387,6 @@
     <t>A sporadic and lethal lassa fever case in forest guinea, 2019</t>
   </si>
   <si>
-    <t>Conde S., Duraffour S., Fichet-calve E., Fichet-calvet E., Guenther S., Hinzmann J., Keita S., Kekoura I., Koivogui E., Kone M., Koropogui M., Magassouba N., N'faly magassouba N., Soropogui B.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology dpt., Bernhard Nocht Institute for Tropical Medicine, Bernhard-Nocht-Str. 74, Hamburg 20359, Germany, Viruses 12 (10), 1062 (2020)</t>
   </si>
   <si>
@@ -438,9 +402,6 @@
     <t>Lethal infection of lassa virus isolated from a human clinical sample in outbred guinea pigs without adaptation</t>
   </si>
   <si>
-    <t>Bukreyeva N., Huang C., Manning J., Maruyama J., Mateer E., Paessler S., Sattler R.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pthology, University of Texas Medical Branch, 301 university blvd, GALVESTON, TX 77555, USA, mSphere (2019) In press</t>
   </si>
   <si>
@@ -451,9 +412,6 @@
   </si>
   <si>
     <t>Capturing diverse microbial sequence with comprehensive and scalable probe design</t>
-  </si>
-  <si>
-    <t>Allen T., Balmaseda A., Barbosa-lima G., Barnes K., Bosch I., Bozza F., Brehio P., Carter A., Corleis B., Ebel G., Eromon P., Folarin O., Garcia K., Gehrke L., Gladden-young A., Gnirke A., Goba A., Goldfarb A., Grant D., Happi C., Harris E., Hennigan S., Hensley L., Isern S., Kwon D., Lin A., Lorenzana I., Matranga C., Metsky H., Michael S., Odia I., Parham L., Park D., Paul L., Piantadosi A., Qu J., Runstadler J., Sabeti P., Siddle K., Simon-loriere E., Smole S., Souza T., Tan A., Tully D., Vieira Y., Wohl S., Yang D.</t>
   </si>
   <si>
     <t xml:space="preserve"> Viral Genomics, IDMP, Broad Institute, 75 Ames Street, Cambridge, MA 02142, USA, Unpublished</t>
@@ -467,9 +425,6 @@
   </si>
   <si>
     <t>Lassa virus outbreak genomics and epidemiology from nigeria</t>
-  </si>
-  <si>
-    <t>Amao A., Barnes K., Birren B., Brehio P., Chak B., Ehaine P., Folarin O., Happi C., Mehta S., Nosamiefan I., Odia I., Oguzie J., Okokhere P., Park D., Sabeti P., Shah R., Siddle K., Winnicki S., Yozwiak N.</t>
   </si>
   <si>
     <t xml:space="preserve"> Infectious Disease Program, Broad Institute of Harvard and MIT, 75 Ames St, Cambridge, MA 02142, USA, Unpublished</t>
@@ -491,9 +446,6 @@
     <t>Nucleotide sequence variability of gpc region of lassa fever virus in 2015/2016 outbreak in nigeria</t>
   </si>
   <si>
-    <t>James A., Omilabu S., Salu O.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Biochemistry/Virology Unit- Central Research Lab., College of Medicine-University of Lagos, Block F, Idi-araba, Surulere, Lagos State 234-100254, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -509,9 +461,6 @@
     <t>Uncovering the etiology of fevers of unknown origin: a laboratory-based observational study in patients with suspected ebola, guinea, 2014</t>
   </si>
   <si>
-    <t>Drexler J., Postigo hidalgo I.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Institute of virology, Charite Universitatsmedizin Berlin, Chariteplatz 1, Berlin, Berlin 10117, Germany, Unpublished</t>
   </si>
   <si>
@@ -527,9 +476,6 @@
     <t>The pathogenic factor of lassa virus infection in guinea pigs</t>
   </si>
   <si>
-    <t>Huang C., Manning J., Maruyama J., Paessler S., Paroha R., Saito T., Taniguchi S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pathology, The University of Texas Medical Branch, 301 university blvd, Galveston, TX 77555, USA, Unpublished</t>
   </si>
   <si>
@@ -540,9 +486,6 @@
   </si>
   <si>
     <t>Lassa virus in pygmy mice, benin</t>
-  </si>
-  <si>
-    <t>Achaz A., Baptiste J., Fichet-calvet E., Gunther S., Kourouma F., Saizounou R., Yadouleton A.</t>
   </si>
   <si>
     <t xml:space="preserve"> Virology, Bernhard-Nocht Institute of Tropical Medicine, Bernhard-Nocht Strasse 74, Hamburg 20359, Germany, Unpublished</t>
@@ -554,9 +497,6 @@
     <t xml:space="preserve">The GenBank submissions with accession numbers MH028396–MH028401 correspond to the study titled "Lassa Virus in Pygmy Mice, Benin, 2016–2017," authored by Anges Yadouleton, Achaz Agolinou, Fodé Kourouma, Raoul Saizonou, Meike Pahlmann, Sonia Kossou Bedié, Honoré Bankolé, Beate Becker-Ziaja, Fernand Gbaguidi, Anke Thielebein, N’Faly Magassouba, Sophie Duraffour, Jean-Pierre Baptiste, Stephan Günther, and Elisabeth Fichet-Calvet. ([wwwnc.cdc.gov](https://wwwnc.cdc.gov/eid/article/25/10/18-0523_article?utm_source=openai))
 This study was published in the journal *Emerging Infectious Diseases* in October 2019 (Volume 25, Number 10, pages 1977–1979). The PubMed ID (PMID) for this publication is 31365854. ([stacks.cdc.gov](https://stacks.cdc.gov/view/cdc/82932?utm_source=openai))
 The study reports the identification of Lassa virus in three pygmy mice (*Mus baoulei*) in central Benin, suggesting that these mice may serve as a new reservoir for Lassa virus in Ghana, Togo, and Benin. ([wwwnc.cdc.gov](https://wwwnc.cdc.gov/eid/article/25/10/18-0523_article?utm_source=openai)) </t>
-  </si>
-  <si>
-    <t>Barnes K., Gerhardt D., Hensley L., Honko A., Jahrling P., Johnson J., Olinger G., Sabeti P., Sword J., Wohl S.</t>
   </si>
   <si>
     <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
@@ -577,9 +517,6 @@
     <t>Metagenomic sequencing at the epicenter of the nigeria 2018 lassa fever outbreak, Phylogeography of lassa virus in nigeria</t>
   </si>
   <si>
-    <t>Adomeh D., Agbukor J., Aire C., Airende M., Aiyepada J., Akhideno P., Akhilomen P., Akpede G., Akpede N., Asogun D., Atafo R., Cadar D., Carroll M., Duraffour S., Ebhodaghe P., Ebo B., Efthymiadis K., Ehichioya D., Ehikhametalor S., Ekanem A., Erameh C., Esumeh R., Formenty P., Giwa R., Gunther S., Hewson R., Hinzmann J., Hiscox J., Igenegbale G., Ighodalo Y., Ihekweazu C., Iraoyah K., Iruolagbe C., Isibor E., Kafetzopoulou L., Koenig F., Lemey P., Lorenzen S., Lumley S., Matjeschk J., Muoebonam E., Naidoo D., Odia I., Odigie G., Oestereich L., Ogbaini-emovon E., Okogbenin S., Okokhere P., Okonofua G., Okonofua M., Olokor T., Omiumu R., Omomoh E., Osiemi B., Oyakhilome J., Pahlmann M., Pullan S., Rafiu M., Rieger T., Schachten D., Suchard M., Thielebein A., Tobin E., Ukpetena R., Vipond R., Wozniak D., Yerumoh E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Virology, Bernhard-Nocht-Institute for Tropical Medicine, Bernhard-Nocht-Str. 74, Hamburg 20359, Germany, Unpublished</t>
   </si>
   <si>
@@ -592,9 +529,6 @@
     <t>Metagenomics identifies emerging and re-emerging viruses in nigerian cohorts with acute febrile illnesses, including pathogens of global concern</t>
   </si>
   <si>
-    <t>Abejegah C., Adedosu N., Adewale-fasoro O., Airende M., Aiyepada J., Ajayi N., Ayodeji O., Blessing O., Edamhande A., Eromon P., Folarin O., Frost S., Gbemisola O., Happi C., Ifoga P., Ihekweazu C., Jackson E., Komolafe I., Mehta S., Nair P., Odia I., Ogah O., Oguzie J., Ojide K., Okogbenin S., Okokhere P., Oluniyi P., Oyejide N., Pastusiak A., Petros B., Qu J., Sabeti P., Siddle K., Stenson L., Tomkins-tinch C., Uyigue E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biological Sciences, African Centre of Excellence for Genomics of Infectious Diseases(ACEGID), Redeemer's University, Akoda, Ede, Osun 23401, Nigeria,  Biological Sciences, Redeemer's University, Akoda junction, Ede, Osun 23401, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -607,9 +541,6 @@
     <t>A case of lassa fever virus outbreak in ebonyi and lagos states, nigeria. 2013, A case of lassa fever virus outbreak in enugu state, nigeria</t>
   </si>
   <si>
-    <t>James A., Omilabu S., Orenolu M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Biochemistry/Virology Unit- Central Research Lab, College of Medicine-University of Lagos, Block F, Idi-araba, Surulere, Lagos State 234-100254, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -620,9 +551,6 @@
   </si>
   <si>
     <t>Lassa virus diversity in liberia</t>
-  </si>
-  <si>
-    <t>Albarino C., Bolay F., Chitty J., Davis W., Fakoli L., Palacios G., Patel K., Prieto K., Reyes D., Stroher U., Welch S., Wiley M.</t>
   </si>
   <si>
     <t xml:space="preserve"> Center for Genome Sciences, United States Army Medical Research Institute of Infectious Diseases (USAMRIID), 1425 Porter Street, Ft Detrick, MD 21702, USA,  Viral Special Pathogens Branch, Centers for Disease Control and Prevention, 1600 Clifton Rd. NE, Atlanta, GA 30333, USA, Unpublished</t>
@@ -641,9 +569,6 @@
   </si>
   <si>
     <t>Lassa virus infection of non-rodent hosts in nigeria</t>
-  </si>
-  <si>
-    <t>Achonduh-atijegbe O., Adedokun O., Adeyemo A., Akano K., Akinwale E., Amare M., Ayinla A., Broach E., Collins N., Daodu R., Eller L., Fouapon A., Happi A., Happi C., Iroezindu M., Lay J., Lombardi K., Mccauley M., Mebrahtu T., Modjarrad K., Nosamiefan I., Nwofoke C., Ogunsanya O., Okolie J., Parker E., Parker Z., Prins P., Print P., Saibu F., Sharon D., Sharon S., Sijuwola A., Tiamiyu A., Tucker C., Vasan S.</t>
   </si>
   <si>
     <t xml:space="preserve"> African Center of Excellence for Genomics of Infectious Diseases, Redeemer's University, Redeemer's University, Ede, Osun PMB230, Nigeria, Unpublished</t>
@@ -665,9 +590,6 @@
     <t>Genomic characterization of clinical lassa virus isolates from 2017-2023 transmission seasons in sierra leone</t>
   </si>
   <si>
-    <t>Alhasan F., Andersen K., Baimba F., Francis B., Garry R., Grant D., Happi C., Jalloh A., Kallon T., Kamara M., Kanneh L., Momoh M., Park D., Sabeti P., Samuels R., Sandi J., Schefflien J., Schieffelin J., Siddle K., Tomkins-tinch C., Wohl S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Kenema Government Hospital, Viral Hemorrhagic Fever (Vhf) Laborarory, Combema Road, Kenema, Eastern Regon, Sierra Leone,  Laboratory, Kenema Government Hospital, viral hemorrhagic fever (VHF) Laborarory, Combema road, Kenema, Eastern Province, Sierra Leone,  Viral Hemorrhagic Fever (VHF) Laborarory, Kenema Government Hospital, Combema Road, Kenema, Sierra Leone, Unpublished</t>
   </si>
   <si>
@@ -705,6 +627,84 @@
   </si>
   <si>
     <t>PMID</t>
+  </si>
+  <si>
+    <t>Clegg C., Tolley H., Burton J., Silman N., Lloyd G., Clegg C.</t>
+  </si>
+  <si>
+    <t>Atkin S., Hand J., Anaraki S., Gothard P., Walsh A., Gopal R., Gopal R., Morgan D., Brown D.</t>
+  </si>
+  <si>
+    <t>Jardine J., Burt F., Grobbelaar A., Swanepoel R.</t>
+  </si>
+  <si>
+    <t>Omilabu S., Orenolu M., James A.</t>
+  </si>
+  <si>
+    <t>Leski T., Stockelman M., Moses L., Park M., Lin B.</t>
+  </si>
+  <si>
+    <t>Andersen K., Shapiro B., Matranga C., Gire S., Sealfon R., England E., Winnicki S., Moses L., Stremlau M., Folarin O., Odia I., Ehiane P., Goba A., Momoh M., Gnirke A., Birren B., Hensley L., Levin J., Happi C., Garry R., Sabeti P.</t>
+  </si>
+  <si>
+    <t>Gerhardt D., Honko A., Sword J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Johnson J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Honko A., Sword J.</t>
+  </si>
+  <si>
+    <t>Omilabu S., Salu O., James A.</t>
+  </si>
+  <si>
+    <t>Welch S., Wiley M., Davis W., Patel K., Albarino C., Prieto K., Reyes D., Chitty J., Fakoli L., Bolay F., Stroher U., Palacios G.</t>
+  </si>
+  <si>
+    <t>Yadouleton A., Achaz A., Kourouma F., Saizounou R., Baptiste J., Gunther S., Fichet-calvet E.</t>
+  </si>
+  <si>
+    <t>Odia I., Ehaine P., Oguzie J., Siddle K., Mehta S., Barnes K., Winnicki S., Brehio P., Shah R., Chak B., Yozwiak N., Amao A., Nosamiefan I., Birren B., Park D., Folarin O., Okokhere P., Sabeti P., Happi C.</t>
+  </si>
+  <si>
+    <t>Karan L., Makenov M., Korneev M., Boumbaly S., Kourouma K., Bayandin R., Gladysheva A., Shipovalov A., Boiro M., Sako S.</t>
+  </si>
+  <si>
+    <t>Ehichioya D., Kafetzopoulou L., Lemey P., Rieger T., Cadar D., Ogbaini-emovon E., Okogbenin S., Asogun D., Pullan S., Lemey P., Suchard M., Pahlmann M., Thielebein A., Hinzmann J., Oestereich L., Wozniak D., Efthymiadis K., Schachten D., Koenig F., Matjeschk J., Lorenzen S., Lumley S., Ighodalo Y., Adomeh D., Olokor T., Omomoh E., Omiumu R., Agbukor J., Ebo B., Aiyepada J., Ebhodaghe P., Osiemi B., Ehikhametalor S., Akhilomen P., Airende M., Esumeh R., Muoebonam E., Giwa R., Ekanem A., Igenegbale G., Odigie G., Okonofua G., Ukpetena R., Oyakhilome J., Yerumoh E., Odia I., Aire C., Okonofua M., Atafo R., Tobin E., Asogun D., Akpede N., Okokhere P., Rafiu M., Iraoyah K., Iruolagbe C., Akhideno P., Erameh C., Akpede G., Isibor E., Naidoo D., Hewson R., Hiscox J., Vipond R., Carroll M., Ihekweazu C., Formenty P., Okogbenin S., Ogbaini-emovon E., Gunther S., Duraffour S., Ehichioya D.</t>
+  </si>
+  <si>
+    <t>Metsky H., Siddle K., Gladden-young A., Qu J., Yang D., Brehio P., Goldfarb A., Piantadosi A., Wohl S., Carter A., Lin A., Barnes K., Tully D., Corleis B., Hennigan S., Barbosa-lima G., Vieira Y., Paul L., Tan A., Garcia K., Parham L., Odia I., Eromon P., Folarin O., Goba A., Simon-loriere E., Hensley L., Balmaseda A., Harris E., Kwon D., Allen T., Runstadler J., Smole S., Bozza F., Souza T., Isern S., Michael S., Lorenzana I., Gehrke L., Bosch I., Ebel G., Grant D., Happi C., Park D., Gnirke A., Sabeti P., Matranga C.</t>
+  </si>
+  <si>
+    <t>Escalera-zamudio M., Kouadio L., Matranga C., Du plessis L., Theze J., Pybus O., Calvignac-spencer S., Leendertz F.</t>
+  </si>
+  <si>
+    <t>Maruyama J., Manning J., Mateer E., Sattler R., Bukreyeva N., Huang C., Paessler S.</t>
+  </si>
+  <si>
+    <t>Magassouba N., N'faly magassouba N., Koivogui E., Conde S., Kone M., Koropogui M., Soropogui B., Kekoura I., Hinzmann J., Guenther S., Keita S., Duraffour S., Koropogui M., Soropogui B., Kekoura I., Hinzmann J., Guenther S., Keita S., Duraffour S., Fichet-calvet E., Fichet-calve E.</t>
+  </si>
+  <si>
+    <t>Audet J., Stein D., Leung A., Warner B., Soule G., Sroga P., Griffin B., Grolla A., Tierney K., Albietz A., Kobasa D., Musa A., Ahmad A., Akinpelu A., Mba N., Qiu X., Ihekweazu C., Stein D., Safronetz D.</t>
+  </si>
+  <si>
+    <t>Ghersi B., Vucak M., Nichols J., Bangura J., Bird B., Davison A.</t>
+  </si>
+  <si>
+    <t>Eromon P., Ogunsanya O., Oluniyi P., Olumade T., Oguzie J., Happi A., Happi C.</t>
+  </si>
+  <si>
+    <t>Oguzie J., Petros B., Oluniyi P., Mehta S., Eromon P., Adewale-fasoro O., Ifoga P., Odia I., Pastusiak A., Gbemisola O., Aiyepada J., Uyigue E., Edamhande A., Blessing O., Airende M., Nair P., Tomkins-tinch C., Qu J., Stenson L., Oyejide N., Ajayi N., Ojide K., Ogah O., Abejegah C., Adedosu N., Ayodeji O., Okogbenin S., Okokhere P., Folarin O., Komolafe I., Ihekweazu C., Frost S., Jackson E., Siddle K., Sabeti P., Happi C.</t>
+  </si>
+  <si>
+    <t>Postigo hidalgo I., Drexler J.</t>
+  </si>
+  <si>
+    <t>Sandi J., Momoh M., Jalloh A., Kamara M., Kallon T., Baimba F., Samuels R., Wohl S., Alhasan F., Kanneh L., Park D., Siddle K., Schefflien J., Sabeti P., Garry R., Andersen K., Happi C., Momoh M., Jalloh A., Kamara M., Kallon T., Baimba F., Samuels R., Wohl S., Alhasan F., Kanneh L., Park D., Siddle K., Schieffelin J., Sabeti P., Garry R., Andersen K., Happi C., Momoh M., Jalloh A., Kamara M., Kallon T., Francis B., Samuels R., Wohl S., Alhasan F., Kanneh L., Park D., Tomkins-tinch C., Siddle K., Schefflien J., Sabeti P., Garry R., Andersen K., Happi C., Grant D.</t>
+  </si>
+  <si>
+    <t>Happi A., Ogunsanya O., Ayinla A., Sijuwola A., Akano K., Saibu F., Nwofoke C., Achonduh-atijegbe O., Daodu R., Adedokun O., Adeyemo A., Parker Z., Parker E., Mccauley M., Eller L., Tiamiyu A., Iroezindu M., Akinwale E., Mebrahtu T., Lombardi K., Broach E., Prins P., Lay J., Amare M., Nosamiefan I., Okolie J., Modjarrad K., Collins N., Vasan S., Tucker C., Fouapon A., Sharon D., Ogunsanya O., Ayinla A., Sijuwola A., Akano K., Saibu F., Nwofoke C., Achonduh-atijegbe O., Daodu R., Adedokun O., Adeyemo A., Parker Z., Parker E., Mccauley M., Eller L., Tiamiyu A., Iroezindu M., Akinwale E., Mebrahtu T., Lombardi K., Broach E., Prins P., Lay J., Amare M., Nosamiefan I., Okolie J., Modjarrad K., Collins N., Vasan S., Tucker C., Fouapon A., Sharon S., Ogunsanya O., Ayinla A., Sijuwola A., Akano K., Saibu F., Nwofoke C., Achonduh-atijegbe O., Daodu R., Adedokun O., Adeyemo A., Parker Z., Parker E., Mccauley M., Eller L., Tiamiyu A., Iroezindu M., Akinwale E., Mebrahtu T., Lombardi K., Broach E., Print P., Lay J., Amare M., Nosamiefan I., Okolie J., Modjarrad K., Collins N., Vasan S., Tucker C., Fouapon A., Sharon D., Happi C.</t>
+  </si>
+  <si>
+    <t>Taniguchi S., Saito T., Paroha R., Manning J., Huang C., Paessler S., Maruyama J.</t>
+  </si>
+  <si>
+    <t>Carey B., Yu S., Geiger J., Ye C., Mehta M., Hirsch S., Cubitt B., Martinez-sobrido L., Carlos de la torre J., Kuhn J.</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="J1:L1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1222,12 +1222,12 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1251,898 +1251,902 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2004</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2">
-        <v>26276630</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
-        <v>19317988</v>
+        <v>26276630</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>195</v>
+        <v>51</v>
+      </c>
+      <c r="G12" s="2">
+        <v>19317988</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2">
-        <v>31002054</v>
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2">
-        <v>39551823</v>
+        <v>31002054</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="G15" s="2">
+        <v>39551823</v>
+      </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="2">
-        <v>36968239</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G19" s="2">
+        <v>36968239</v>
+      </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="2">
-        <v>25811712</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="2">
-        <v>32977629</v>
+        <v>100</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2">
-        <v>31554720</v>
+        <v>25811712</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G24" s="2">
-        <v>30718881</v>
+        <v>32977629</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="G25" s="2">
+        <v>31554720</v>
+      </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>114</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="G26" s="2">
+        <v>30718881</v>
+      </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="G27" s="2">
+        <v>30332564</v>
+      </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="2">
-        <v>31365854</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>196</v>
+        <v>135</v>
+      </c>
+      <c r="G30" s="2">
+        <v>38826374</v>
       </c>
       <c r="H30" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="G31" s="2">
+        <v>31365854</v>
+      </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="I32" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" t="s">
         <v>147</v>
       </c>
-      <c r="F33" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33" s="2">
-        <v>38088796</v>
-      </c>
-      <c r="H33" t="s">
-        <v>188</v>
-      </c>
       <c r="I33" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="G34">
+        <v>37542071</v>
+      </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>151</v>
+      </c>
+      <c r="I34" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35">
-        <v>2024</v>
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>155</v>
+      </c>
+      <c r="I35" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G37" s="2">
-        <v>30332564</v>
+        <v>38088796</v>
       </c>
       <c r="H37" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="I37" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>173</v>
-      </c>
-      <c r="I38" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2825,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>

--- a/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED518E-0D7C-2B4E-862C-AC92448A8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC532C-0530-D544-8B86-F271759C4652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="1560" windowWidth="20100" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
   <si>
     <t>RefID</t>
   </si>
@@ -499,21 +499,6 @@
 The study reports the identification of Lassa virus in three pygmy mice (*Mus baoulei*) in central Benin, suggesting that these mice may serve as a new reservoir for Lassa virus in Ghana, Togo, and Benin. ([wwwnc.cdc.gov](https://wwwnc.cdc.gov/eid/article/25/10/18-0523_article?utm_source=openai)) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t>KY425626, KY425628, KY425632, KY425634, KY425635, KY425638, KY425640, KY425641, KY425642, KY425643, KY425650, KY425651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank submissions with accession numbers KY425626, KY425628, KY425632, KY425634, KY425635, KY425638, KY425640, KY425641, KY425642, KY425643, KY425650, and KY425651, attributed to authors including Barnes K., Gerhardt D., Hensley L., Honko A., Jahrling P., Johnson J., Olinger G., Sabeti P., Sword J., and Wohl S., are associated with the following publication:
-**Title:** "Deployable CRISPR-Cas13a diagnostic tools to detect and report Ebola and Lassa virus cases in real-time"
-**Authors:** Kayla G. Barnes, Anna E. Lachenauer, Sameed Siddiqui, Katherine J. Siddle, Catherine A. Freije, Samar B. Mehta, Amber Carter, Hayden C. Metsky, Chloe K. Boehm, Aaron E. Lin, Molly Kemball, Daniel J. Park, Cameron Myhrvold, Stephen F. Schaffner, Andres Colubri, Pardis C. Sabeti, Robin Gross, Bonnie Dighero-Kemp, Lisa E. Hensley, Brett Beitzel, Gustavo Palacios, Jessica Uwanibe, Fehintola Ajogbasile, Testimony Olumade, John Demby Sandi, Mambu Momoh, Christian T. Happi, Ikponmwosa Odia, Donald S. Grant, Luis Branco, Matt Boisen, Robert F. Garry, Brian Sullivan, Mihret F. Amare, Abdulwasiu B. Tiamiyu, Zahra F. Parker, Michael Iroezindu, Kayvon Modjarrad
-**Journal:** Nature Communications
-**Year:** 2020
-**DOI:** 10.1038/s41467-020-17994-9
-This study presents the development of CRISPR-Cas13a-based diagnostic tools for the real-time detection and reporting of Ebola and Lassa virus cases. The authors include several individuals listed in the GenBank submissions, such as Kayla G. Barnes, Lisa E. Hensley, and Pardis C. Sabeti. The research was conducted at the Integrated Research Facility in Frederick, Maryland, aligning with the institution mentioned in the GenBank records. ([nature.com](https://www.nature.com/articles/s41467-020-17994-9?code=afc4113f-53d0-47bf-872a-27ed288c5edd&amp;error=cookies_not_supported&amp;utm_source=openai)) </t>
-  </si>
-  <si>
     <t>Metagenomic sequencing at the epicenter of the nigeria 2018 lassa fever outbreak, Phylogeography of lassa virus in nigeria</t>
   </si>
   <si>
@@ -645,9 +630,6 @@
   </si>
   <si>
     <t>Andersen K., Shapiro B., Matranga C., Gire S., Sealfon R., England E., Winnicki S., Moses L., Stremlau M., Folarin O., Odia I., Ehiane P., Goba A., Momoh M., Gnirke A., Birren B., Hensley L., Levin J., Happi C., Garry R., Sabeti P.</t>
-  </si>
-  <si>
-    <t>Gerhardt D., Honko A., Sword J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Johnson J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Honko A., Sword J.</t>
   </si>
   <si>
     <t>Omilabu S., Salu O., James A.</t>
@@ -1106,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,327 +1121,330 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2021</v>
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>27660771</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2004</v>
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G5" s="2">
+        <v>19317988</v>
+      </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>2004</v>
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>2020</v>
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>152</v>
+      </c>
+      <c r="I8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <v>2016</v>
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25811712</v>
+      </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>2016</v>
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G10" s="2">
+        <v>26276630</v>
+      </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>2016</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2">
-        <v>26276630</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>2016</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="2">
-        <v>19317988</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>2016</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>169</v>
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>27660771</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
         <v>173</v>
@@ -1467,57 +1452,52 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="2">
-        <v>31002054</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="2">
-        <v>39551823</v>
+        <v>155</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="I15" t="s">
         <v>173</v>
@@ -1525,106 +1505,118 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="G16" s="2">
+        <v>31365854</v>
+      </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>140</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="G17" s="2">
+        <v>30332564</v>
+      </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G18" s="2">
+        <v>31002054</v>
+      </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="2">
-        <v>36968239</v>
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1653,506 +1645,469 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>168</v>
+        <v>117</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30718881</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="2">
-        <v>25811712</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2">
-        <v>32977629</v>
+        <v>31554720</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G25" s="2">
-        <v>31554720</v>
+        <v>32977629</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>2020</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="2">
-        <v>30718881</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="2">
-        <v>30332564</v>
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>2021</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G29" s="2">
+        <v>36968239</v>
+      </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="2">
-        <v>38826374</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" t="s">
-        <v>136</v>
+        <v>78</v>
+      </c>
+      <c r="I30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="2">
-        <v>31365854</v>
+        <v>147</v>
+      </c>
+      <c r="G31">
+        <v>37542071</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
         <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34">
-        <v>37542071</v>
+        <v>159</v>
+      </c>
+      <c r="G34" s="2">
+        <v>38088796</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>2024</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>171</v>
+        <v>135</v>
+      </c>
+      <c r="G36" s="2">
+        <v>38826374</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="G37" s="2">
-        <v>38088796</v>
+        <v>39551823</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I38">
-      <sortCondition ref="A1:A38"/>
+  <autoFilter ref="A1:I37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I37">
+      <sortCondition ref="F1:F37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2825,7 +2780,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>

--- a/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC532C-0530-D544-8B86-F271759C4652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125DD97-92B6-344F-906E-270B85C19958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1560" windowWidth="20100" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10000" yWindow="1060" windowWidth="20100" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
   <si>
     <t>RefID</t>
   </si>
@@ -585,15 +585,6 @@
   </si>
   <si>
     <t>https://www.biorxiv.org/content/10.1101/616466v1.full</t>
-  </si>
-  <si>
-    <t>36992478, 34634087</t>
-  </si>
-  <si>
-    <t>30606844, 31413134</t>
-  </si>
-  <si>
-    <t>30050872, 31588039</t>
   </si>
   <si>
     <t>Double check</t>
@@ -1091,7 +1082,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1121,13 +1112,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1138,7 +1129,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -1202,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1213,7 +1204,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -1231,7 +1222,7 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1266,7 +1257,7 @@
         <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>94</v>
@@ -1290,7 +1281,7 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
         <v>150</v>
@@ -1306,7 +1297,7 @@
         <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1317,7 +1308,7 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>103</v>
@@ -1335,7 +1326,7 @@
         <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1346,7 +1337,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -1364,7 +1355,7 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1391,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1418,7 +1409,7 @@
         <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1447,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1458,7 +1449,7 @@
         <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
         <v>124</v>
@@ -1482,7 +1473,7 @@
         <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
         <v>154</v>
@@ -1493,14 +1484,14 @@
       <c r="F15" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>168</v>
+      <c r="G15" s="2">
+        <v>31588039</v>
       </c>
       <c r="H15" t="s">
         <v>156</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1511,7 +1502,7 @@
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
         <v>138</v>
@@ -1529,7 +1520,7 @@
         <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1540,7 +1531,7 @@
         <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
         <v>120</v>
@@ -1558,7 +1549,7 @@
         <v>122</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1587,7 +1578,7 @@
         <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1598,7 +1589,7 @@
         <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
@@ -1616,7 +1607,7 @@
         <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1651,7 +1642,7 @@
         <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
         <v>142</v>
@@ -1662,14 +1653,14 @@
       <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>167</v>
+      <c r="G21" s="2">
+        <v>30606844</v>
       </c>
       <c r="H21" t="s">
         <v>144</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1680,7 +1671,7 @@
         <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
         <v>116</v>
@@ -1698,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1709,7 +1700,7 @@
         <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -1733,7 +1724,7 @@
         <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
         <v>112</v>
@@ -1751,7 +1742,7 @@
         <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1762,7 +1753,7 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
         <v>107</v>
@@ -1780,7 +1771,7 @@
         <v>110</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1815,7 +1806,7 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
@@ -1826,14 +1817,14 @@
       <c r="F27" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>166</v>
+      <c r="G27" s="2">
+        <v>34634087</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1868,7 +1859,7 @@
         <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -1886,7 +1877,7 @@
         <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1897,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
         <v>75</v>
@@ -1913,7 +1904,7 @@
         <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1924,7 +1915,7 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
         <v>146</v>
@@ -1942,7 +1933,7 @@
         <v>148</v>
       </c>
       <c r="I31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1953,7 +1944,7 @@
         <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
         <v>129</v>
@@ -1969,7 +1960,7 @@
         <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1980,7 +1971,7 @@
         <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
         <v>162</v>
@@ -2004,7 +1995,7 @@
         <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
         <v>158</v>
@@ -2022,7 +2013,7 @@
         <v>160</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2057,7 +2048,7 @@
         <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
         <v>134</v>
@@ -2083,7 +2074,7 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -2101,7 +2092,7 @@
         <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125DD97-92B6-344F-906E-270B85C19958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7F968-2B69-B64E-AF0C-5440255C3246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="1060" windowWidth="20100" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> MRC Centre for Virus Research, University of Glasgow, 464 Bearsden road, Glasgow G61 1QH, United Kingdom</t>
   </si>
   <si>
-    <t>OL774863, OL774862, OL774861, OL774860, OL774859, OL774858, OL774857, OL774856</t>
-  </si>
-  <si>
     <t xml:space="preserve">I couldn't locate a publication directly associated with the GenBank submissions OL774856 to OL774863 by Ashraf S. et al. from 2021. It's possible that the data has not been published in a peer-reviewed journal or is part of an unpublished study. For more information, you might consider contacting the authors directly at the MRC Centre for Virus Research, University of Glasgow. </t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t xml:space="preserve"> Virology, United States Army Medical Research Institute for Infectious Diseases, 1425 Porter St, Frederick, MD 21702, USA</t>
   </si>
   <si>
-    <t>JN650518, JN650517</t>
-  </si>
-  <si>
     <t xml:space="preserve">I couldn't locate a specific publication associated with the GenBank submissions JN650518 and JN650517 by authors Bjornson-Hooper Z., Gire S., Honko A., Sabeti P., and Hensley L. from 2011. It's possible that the sequences were submitted as part of a larger study or project without a corresponding standalone publication. For more detailed information, you might consider contacting the authors directly or consulting the United States Army Medical Research Institute for Infectious Diseases, where the research was conducted. </t>
   </si>
   <si>
@@ -91,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Institute for Medical Microbiology, NGS core facility, Justus-Liebig-University, Institute for Medical Microbiology, Schuberttrasse 81, 35392 Giessen, Hessia, 35392, Germany</t>
-  </si>
-  <si>
-    <t>LT601602, LT601601</t>
   </si>
   <si>
     <t xml:space="preserve">The GenBank submissions with accession numbers LT601601 and LT601602 are associated with the following publication:
@@ -111,9 +102,6 @@
     <t xml:space="preserve"> Viral Sequencing Group, Lawrence Livermore National Laboratory, 7000 East Avenue, Livermore, CA 94550, USA</t>
   </si>
   <si>
-    <t>AY628208, AY628207, AY628206, AY628205, AY628204, AY628203, AY628202, AY628201, AY628200</t>
-  </si>
-  <si>
     <t xml:space="preserve">After an extensive search, I couldn't locate a specific publication associated with the GenBank submissions (accession numbers AY628200 to AY628208) by authors Hajjaj A., Chain P., Do L., Smith K., Imbro P., and Malfatti S. from the Viral Sequencing Group at Lawrence Livermore National Laboratory in 2004. It's possible that these sequences were submitted directly to GenBank without an accompanying publication. </t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t xml:space="preserve"> ACEGID, Redeemers University, Ede, Osun PMB230, Nigeria</t>
   </si>
   <si>
-    <t>PP431209, PP431200, PP431195, PP431181, PP431176, PP431156, PP431211, PP431208, PP431205, PP431204, PP431203, PP431198, PP431196, PP431194, PP431187, PP431185, PP431183, PP431173, PP431167, PP431165, PP431162, PP431160, PP431155</t>
-  </si>
-  <si>
     <t xml:space="preserve">I couldn't locate a specific publication associated with the GenBank submission set you provided. The title "Direct Submission" suggests that the sequences were submitted directly to GenBank without an accompanying publication. It's possible that a related study has been published or is forthcoming, but without additional information, I cannot identify it. </t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
   </si>
   <si>
-    <t>MW007355, MW007354, MW007353, MW007352, MW007351</t>
-  </si>
-  <si>
     <t xml:space="preserve">I couldn't locate a specific publication associated with the GenBank submissions MW007355, MW007354, MW007353, MW007352, and MW007351 from 2020 by the One Health Institute and the Karen C. Drayer Wildlife Health Center at the University of California, Davis. These sequences may have been part of a larger study or project that hasn't been published in a traditional journal article. For more information, you might consider contacting the One Health Institute directly through their website: ([ohi.vetmed.ucdavis.edu](https://ohi.vetmed.ucdavis.edu/centers/whc?utm_source=openai)). </t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t xml:space="preserve"> WHO Collaborating Centre for Arboviruses and Hemorrhagic Fever Reference and Research, Bernhard Nocht Institute for Tropical Medicine, Bernhard-Nocht-Str. 74, Hamburg 20359, Germany</t>
   </si>
   <si>
-    <t>KU961972, KU961972, KU961972, KU961971</t>
-  </si>
-  <si>
     <t xml:space="preserve">The GenBank submission you referenced is associated with the study titled "Lassa virus strain HCSF (2015) complete genome" by Rieger T., Cadar D., Schmidt-Chanasit J., and Günther S., submitted in 2016. This submission is linked to the publication "Lassa virus strain HCSF (2015) complete genome" in the journal Virology, volume 493, pages 14-21, published in 2016. The PubMed ID (PMID) for this publication is 26921735. </t>
   </si>
   <si>
@@ -166,9 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Microbiology and Immunology, University of Texas Medical Branch, 301 University Boulevard, Galveston, TX 77555, USA</t>
-  </si>
-  <si>
-    <t>KU978807, KU978808, KU978810, KU978809, KU978811, KU978812</t>
   </si>
   <si>
     <t xml:space="preserve">The GenBank submission by Rossi S., Guerbois M., Forrester N., Ksiazek T., Lin D., Hari K., and Weaver S. in 2016, associated with accession numbers KU978807, KU978808, KU978810, KU978809, KU978811, and KU978812, corresponds to the publication:
@@ -678,6 +654,30 @@
   </si>
   <si>
     <t>Carey B., Yu S., Geiger J., Ye C., Mehta M., Hirsch S., Cubitt B., Martinez-sobrido L., Carlos de la torre J., Kuhn J.</t>
+  </si>
+  <si>
+    <t>OL774856, OL774857, OL774858, OL774859, OL774860, OL774861, OL774862, OL774863</t>
+  </si>
+  <si>
+    <t>JN650517, JN650518</t>
+  </si>
+  <si>
+    <t>LT601601, LT601602</t>
+  </si>
+  <si>
+    <t>AY628200, AY628201, AY628202, AY628203, AY628204, AY628205, AY628206, AY628207, AY628208</t>
+  </si>
+  <si>
+    <t>PP431155, PP431156, PP431160, PP431162, PP431165, PP431167, PP431173, PP431176, PP431181, PP431183, PP431185, PP431187, PP431194, PP431195, PP431196, PP431198, PP431200, PP431203, PP431204, PP431205, PP431208, PP431209, PP431211</t>
+  </si>
+  <si>
+    <t>MW007351, MW007352, MW007353, MW007354, MW007355</t>
+  </si>
+  <si>
+    <t>KU961971, KU961972</t>
+  </si>
+  <si>
+    <t>KU978807, KU978808, KU978809, KU978810, KU978811, KU978812</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F2" sqref="F2:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,502 +1112,492 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="G4" s="2">
+        <v>27660771</v>
+      </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2">
-        <v>19317988</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2004</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="2">
-        <v>25811712</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="2">
-        <v>26276630</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11">
-        <v>2016</v>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G11" s="2">
+        <v>26276630</v>
+      </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>2016</v>
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="2">
+        <v>19317988</v>
+      </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>2016</v>
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
-        <v>27660771</v>
+        <v>34634087</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G14" s="2">
+        <v>31002054</v>
+      </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2">
-        <v>31588039</v>
+        <v>39551823</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="2">
-        <v>31365854</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="2">
-        <v>30332564</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="2">
-        <v>31002054</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>165</v>
+        <v>78</v>
+      </c>
+      <c r="G19" s="2">
+        <v>36968239</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1615,490 +1605,500 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="2">
-        <v>30606844</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="2">
-        <v>30718881</v>
+        <v>92</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="G23" s="2">
+        <v>25811712</v>
+      </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G24" s="2">
-        <v>31554720</v>
+        <v>32977629</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="2">
+        <v>31554720</v>
+      </c>
+      <c r="H25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="2">
-        <v>32977629</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26">
-        <v>2020</v>
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="G26" s="2">
+        <v>30718881</v>
+      </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
-        <v>34634087</v>
+        <v>30332564</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>2021</v>
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="2">
-        <v>36968239</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G29" s="3"/>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="G30" s="2">
+        <v>38826374</v>
+      </c>
       <c r="H30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31">
-        <v>37542071</v>
+        <v>131</v>
+      </c>
+      <c r="G31" s="2">
+        <v>31365854</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30606844</v>
+      </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I32" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="G33">
+        <v>37542071</v>
+      </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="2">
-        <v>38088796</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G34" s="3"/>
       <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
         <v>160</v>
-      </c>
-      <c r="I34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35">
-        <v>2024</v>
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="G35" s="2">
+        <v>31588039</v>
+      </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>148</v>
+      </c>
+      <c r="I35" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G36" s="2">
-        <v>38826374</v>
+        <v>38088796</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>152</v>
+      </c>
+      <c r="I36" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="2">
-        <v>39551823</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I37" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I37">
-      <sortCondition ref="F1:F37"/>
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2771,7 +2771,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>

--- a/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F7F968-2B69-B64E-AF0C-5440255C3246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912ED6E6-9F8E-DF4D-894A-99EB9A6343FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="1060" windowWidth="20100" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="500" windowWidth="27680" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="194">
   <si>
     <t>RefID</t>
   </si>
@@ -96,12 +96,6 @@
 You can access the full article here: ([journals.asm.org](https://journals.asm.org/doi/10.1128/genomea.00938-16?utm_source=openai)) </t>
   </si>
   <si>
-    <t>Hajjaj A., Chain P., Do L., Smith K., Imbro P., Malfatti S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viral Sequencing Group, Lawrence Livermore National Laboratory, 7000 East Avenue, Livermore, CA 94550, USA</t>
-  </si>
-  <si>
     <t xml:space="preserve">After an extensive search, I couldn't locate a specific publication associated with the GenBank submissions (accession numbers AY628200 to AY628208) by authors Hajjaj A., Chain P., Do L., Smith K., Imbro P., and Malfatti S. from the Viral Sequencing Group at Lawrence Livermore National Laboratory in 2004. It's possible that these sequences were submitted directly to GenBank without an accompanying publication. </t>
   </si>
   <si>
@@ -112,15 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">I couldn't locate a specific publication associated with the GenBank submission set you provided. The title "Direct Submission" suggests that the sequences were submitted directly to GenBank without an accompanying publication. It's possible that a related study has been published or is forthcoming, but without additional information, I cannot identify it. </t>
-  </si>
-  <si>
-    <t>Jahrling P., Geisbert J., Ibrahim M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viral Genomics Group, USAMRIID, Fort Detrick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank submissions by Jahrling P., Geisbert J., and Ibrahim M. in 2004, with accession numbers AY628200 through AY628208, are likely associated with the study titled "Development of a new rapid vaccine for the prevention of Lassa fever" by Geisbert TW et al., published in PLoS Medicine in 2005. This study involved sequencing Lassa virus strains, which aligns with the GenBank submissions. The publication can be accessed at https://doi.org/10.1371/journal.pmed.0020183. </t>
   </si>
   <si>
     <t>NCBI</t>
@@ -678,6 +663,12 @@
   </si>
   <si>
     <t>KU978807, KU978808, KU978809, KU978810, KU978811, KU978812</t>
+  </si>
+  <si>
+    <t>Hajjaj A., Jahrling P., Chain P., Do L., Smith K., Imbro P., Geisbert J., Malfatti S., Ibrahim M.</t>
+  </si>
+  <si>
+    <t>Viral Genomics Group, USAMRIID, Fort Detrick, MD 21702, USA, Viral Sequencing Group, Lawrence Livermore National Laboratory, 7000 East Avenue, Livermore, CA 94550, USA</t>
   </si>
 </sst>
 </file>
@@ -1079,15 +1070,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="43.5" customWidth="1"/>
+    <col min="7" max="7" width="69.5" customWidth="1"/>
     <col min="8" max="8" width="80.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
@@ -1112,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1138,7 +1129,7 @@
         <v>2021</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
@@ -1162,7 +1153,7 @@
         <v>2011</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
@@ -1186,7 +1177,7 @@
         <v>2016</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G4" s="2">
         <v>27660771</v>
@@ -1195,912 +1186,883 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>2004</v>
+        <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>2016</v>
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G9" s="2">
+        <v>26276630</v>
+      </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>2016</v>
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19317988</v>
+      </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
-        <v>26276630</v>
+        <v>34634087</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2">
-        <v>19317988</v>
+        <v>31002054</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2">
-        <v>34634087</v>
+        <v>39551823</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="2">
-        <v>31002054</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="2">
-        <v>39551823</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="G17" s="2">
+        <v>36968239</v>
+      </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="2">
-        <v>36968239</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25811712</v>
+      </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>157</v>
+        <v>96</v>
+      </c>
+      <c r="G22" s="2">
+        <v>32977629</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2">
-        <v>25811712</v>
+        <v>31554720</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2">
-        <v>32977629</v>
+        <v>30718881</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2">
-        <v>31554720</v>
+        <v>30332564</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="2">
-        <v>30718881</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="2">
-        <v>30332564</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="G28" s="2">
+        <v>38826374</v>
+      </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G29" s="2">
+        <v>31365854</v>
+      </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G30" s="2">
-        <v>38826374</v>
+        <v>30606844</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="2">
-        <v>31365854</v>
+        <v>134</v>
+      </c>
+      <c r="G31">
+        <v>37542071</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="2">
-        <v>30606844</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33">
-        <v>37542071</v>
+        <v>142</v>
+      </c>
+      <c r="G33" s="2">
+        <v>31588039</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="G34" s="2">
+        <v>38088796</v>
+      </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="2">
-        <v>31588039</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" t="s">
-        <v>122</v>
+        <v>193</v>
+      </c>
+      <c r="E36">
+        <v>2004</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="2">
-        <v>38088796</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>87</v>
-      </c>
-      <c r="B37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" t="s">
-        <v>156</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I37" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I37">
-      <sortCondition ref="A1:A37"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2771,7 +2733,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>

--- a/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_AI_search_checked.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912ED6E6-9F8E-DF4D-894A-99EB9A6343FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD07806D-B29E-6049-958D-7A9326402B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="500" windowWidth="27680" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="189">
   <si>
     <t>RefID</t>
   </si>
@@ -289,21 +289,6 @@
 **PMID:** 36968239
 **DOI:** [10.1098/rsos.221503](https://doi.org/10.1098/rsos.221503)
 This study explores the genetic factors influencing Lassa virus spillover into human populations, utilizing sequences collected from humans and rodents in Sierra Leone. The overlap in author names and research focus suggests a strong connection between the GenBank submission and this publication. ([pmc.ncbi.nlm.nih.gov](https://pmc.ncbi.nlm.nih.gov/articles/PMC10031424/?utm_source=openai)) </t>
-  </si>
-  <si>
-    <t>Biochemical characterization of the lassa virus l protein</t>
-  </si>
-  <si>
-    <t>Gunther S., Rosenthal M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Department of Virology, Bernhard Nocht Institute for Tropical Medicine (BNITM), Bernhard-Nocht-Strasse 74, Hamburg 20359, Germany, Unpublished</t>
-  </si>
-  <si>
-    <t>MK044799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The study titled "Biochemical characterization of the Lassa virus L protein" by Günther S. and Rosenthal M., published in 2019, can be accessed at https://pmc.ncbi.nlm.nih.gov/articles/PMC6527160/. </t>
   </si>
   <si>
     <t>Arenaviruses in southern african rodents</t>
@@ -755,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -767,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,14 +1058,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
     <col min="7" max="7" width="69.5" customWidth="1"/>
     <col min="8" max="8" width="80.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -1103,13 +1092,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1129,7 +1118,7 @@
         <v>2021</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
@@ -1153,7 +1142,7 @@
         <v>2011</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
@@ -1177,7 +1166,7 @@
         <v>2016</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G4" s="2">
         <v>27660771</v>
@@ -1186,7 +1175,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1206,7 +1195,7 @@
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" t="s">
@@ -1230,7 +1219,7 @@
         <v>2020</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
@@ -1254,14 +1243,14 @@
         <v>2016</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1281,14 +1270,14 @@
         <v>2016</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1299,7 +1288,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -1317,7 +1306,7 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1328,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -1346,7 +1335,7 @@
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1357,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1375,7 +1364,7 @@
         <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1404,7 +1393,7 @@
         <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1415,7 +1404,7 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -1433,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1444,7 +1433,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -1468,7 +1457,7 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
@@ -1484,7 +1473,7 @@
         <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1495,7 +1484,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -1519,7 +1508,7 @@
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -1537,24 +1526,24 @@
         <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
       </c>
       <c r="F18" t="s">
         <v>78</v>
@@ -1566,211 +1555,211 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
       </c>
       <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
         <v>82</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" t="s">
-        <v>84</v>
+      <c r="I19" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" s="2">
+        <v>25811712</v>
+      </c>
+      <c r="H20" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" t="s">
-        <v>88</v>
-      </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="2">
-        <v>25811712</v>
+        <v>32977629</v>
       </c>
       <c r="H21" t="s">
         <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
       </c>
       <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
         <v>95</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="2">
+        <v>31554720</v>
+      </c>
+      <c r="H22" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="2">
-        <v>32977629</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
         <v>99</v>
       </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" s="2">
+        <v>30718881</v>
+      </c>
+      <c r="H23" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="2">
-        <v>31554720</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
       </c>
       <c r="E24" t="s">
         <v>48</v>
       </c>
       <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30332564</v>
+      </c>
+      <c r="H24" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="2">
-        <v>30718881</v>
-      </c>
-      <c r="H24" t="s">
-        <v>105</v>
-      </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>107</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="2">
-        <v>30332564</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" t="s">
         <v>109</v>
       </c>
-      <c r="I25" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
@@ -1781,288 +1770,266 @@
       <c r="F26" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="6">
+        <v>39928049</v>
+      </c>
       <c r="H26" t="s">
         <v>114</v>
       </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
         <v>116</v>
       </c>
       <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" s="2">
+        <v>38826374</v>
+      </c>
+      <c r="H27" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
         <v>120</v>
       </c>
-      <c r="C28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>121</v>
       </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" s="2">
+        <v>31365854</v>
+      </c>
+      <c r="H28" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="2">
-        <v>38826374</v>
-      </c>
-      <c r="H28" t="s">
-        <v>123</v>
+      <c r="I28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
         <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" t="s">
-        <v>125</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="2">
+        <v>30606844</v>
+      </c>
+      <c r="H29" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="2">
-        <v>31365854</v>
-      </c>
-      <c r="H29" t="s">
-        <v>127</v>
-      </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="C30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s">
         <v>129</v>
       </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30">
+        <v>37542071</v>
+      </c>
+      <c r="H30" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="2">
-        <v>30606844</v>
-      </c>
-      <c r="H30" t="s">
-        <v>131</v>
-      </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
         <v>132</v>
       </c>
-      <c r="C31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
         <v>133</v>
       </c>
-      <c r="E31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" t="s">
         <v>134</v>
       </c>
-      <c r="G31">
-        <v>37542071</v>
-      </c>
-      <c r="H31" t="s">
-        <v>135</v>
-      </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
         <v>136</v>
       </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
         <v>137</v>
       </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" s="2">
+        <v>31588039</v>
+      </c>
+      <c r="H32" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" t="s">
-        <v>139</v>
-      </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
         <v>140</v>
       </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
         <v>141</v>
       </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" s="2">
+        <v>38088796</v>
+      </c>
+      <c r="H33" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="2">
-        <v>31588039</v>
-      </c>
-      <c r="H33" t="s">
-        <v>143</v>
-      </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" t="s">
         <v>144</v>
       </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
         <v>145</v>
       </c>
-      <c r="E34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" t="s">
         <v>146</v>
-      </c>
-      <c r="G34" s="2">
-        <v>38088796</v>
-      </c>
-      <c r="H34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" t="s">
-        <v>117</v>
+        <v>188</v>
+      </c>
+      <c r="E35">
+        <v>2004</v>
       </c>
       <c r="F35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36">
-        <v>2004</v>
-      </c>
-      <c r="F36" t="s">
-        <v>187</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>155</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2733,7 +2700,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
